--- a/biology/Médecine/1269_en_santé_et_médecine/1269_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1269_en_santé_et_médecine/1269_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1269_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1269_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1269 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1269_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1269_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Robert, fils puîné du roi Louis IX, fonde un hôpital à Moulins en Bourbonnais[1].
-Une « maison des lépreux […] qui aurait été fondée par les évêques d'Autun » à Lucenay-l'Évêque, dans le Morvan, est attestée dans un aveu de Hugues de Gisors, écuyer[2].
-La léproserie de la Madeleine-lès-Bondies est attestée à Noisy-le-Sec, dans le diocèse de Paris[3].
-Un hôtel-Dieu, peut-être identifiable à l'hôpital Saint-Jacques, est mentionné à Najac, dans le Rouergue[4].
-À Liège, alors capitale d'une principauté épiscopale du Saint-Empire, l'hôpital Saint-Jean l'Évangéliste fondé en 1252 pour accueillir des malades et des infirmes commence à recevoir aussi des béguines[5].
-L'accès à la léproserie de Bruxelles qui deviendra l'hôpital Saint-Pierre est interdit aux étrangers et soumis à un droit d'entrée, les pauvres étant envoyés à Terbank (nl)[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Robert, fils puîné du roi Louis IX, fonde un hôpital à Moulins en Bourbonnais.
+Une « maison des lépreux […] qui aurait été fondée par les évêques d'Autun » à Lucenay-l'Évêque, dans le Morvan, est attestée dans un aveu de Hugues de Gisors, écuyer.
+La léproserie de la Madeleine-lès-Bondies est attestée à Noisy-le-Sec, dans le diocèse de Paris.
+Un hôtel-Dieu, peut-être identifiable à l'hôpital Saint-Jacques, est mentionné à Najac, dans le Rouergue.
+À Liège, alors capitale d'une principauté épiscopale du Saint-Empire, l'hôpital Saint-Jean l'Évangéliste fondé en 1252 pour accueillir des malades et des infirmes commence à recevoir aussi des béguines.
+L'accès à la léproserie de Bruxelles qui deviendra l'hôpital Saint-Pierre est interdit aux étrangers et soumis à un droit d'entrée, les pauvres étant envoyés à Terbank (nl).</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1269_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1269_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. : Abdallah Ebra Baccal, médecin né à Tolède, auteur d'un traité sur l'agriculture[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. : Abdallah Ebra Baccal, médecin né à Tolède, auteur d'un traité sur l'agriculture.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1269_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1269_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cecco d'Ascoli (mort en 1327), poète, théologien, philosophe, astrologue et médecin italien, auteur d'un ouvrage de médecine, le Modo di conoscere quali infermità siano mortali o no per via delle stelle (« Manière de connaître quelle maladie est mortelle ou non par l'étude des astres[8] »).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cecco d'Ascoli (mort en 1327), poète, théologien, philosophe, astrologue et médecin italien, auteur d'un ouvrage de médecine, le Modo di conoscere quali infermità siano mortali o no per via delle stelle (« Manière de connaître quelle maladie est mortelle ou non par l'étude des astres »).</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1269_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1269_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1269[9] ou 1270[10] : Ibn Abi Usaybi'a (né entre 1194[10] et 1203[9]), médecin et historien de la médecine du Moyen-Orient.</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1269 ou 1270 : Ibn Abi Usaybi'a (né entre 1194 et 1203), médecin et historien de la médecine du Moyen-Orient.</t>
         </is>
       </c>
     </row>
